--- a/Dataset 2 x100 19-21.xlsx
+++ b/Dataset 2 x100 19-21.xlsx
@@ -5395,8 +5395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D496" sqref="D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
